--- a/data/AEM_Page_Validation.xlsx
+++ b/data/AEM_Page_Validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\utility.pge.com\users\personal\szkt\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F2EB4F-81DF-4CAB-87BF-AEE1E3428208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADFD76E-ECA8-4B66-93C8-BB4F09CB1142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{CA790444-E43A-4ACD-A38F-B34A17688C00}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>CORP LIVE PAGES</t>
   </si>
@@ -579,7 +579,7 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -692,9 +692,7 @@
       <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="G2" s="8"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
